--- a/Data/EC/NIT-9007899194.xlsx
+++ b/Data/EC/NIT-9007899194.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AEC2548-214F-4EA9-B457-FB5803C9AC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15371881-FFBD-4FE4-B70E-04B0CCE305EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C8E2BA48-8321-4C3E-9179-D4CDA0596D12}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{29C77377-8D09-4F14-ADB1-2D8F755D98A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="47">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,13 +65,67 @@
     <t>CC</t>
   </si>
   <si>
+    <t>9147658</t>
+  </si>
+  <si>
+    <t>FRANCISCO ANTONIO RUIZ DIAZ</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
     <t>73350583</t>
   </si>
   <si>
     <t>PLINIO JIMENEZ CASTRO</t>
   </si>
   <si>
-    <t>2207</t>
+    <t>1050952506</t>
+  </si>
+  <si>
+    <t>YURIS ROCIO PUELLO OYOLA</t>
+  </si>
+  <si>
+    <t>1051446241</t>
+  </si>
+  <si>
+    <t>CHRISTIAN RAFAEL CASTILLO PAJARO</t>
+  </si>
+  <si>
+    <t>1051443690</t>
+  </si>
+  <si>
+    <t>PEDRO LUIS JIMENEZ CASTILLA</t>
+  </si>
+  <si>
+    <t>73556263</t>
+  </si>
+  <si>
+    <t>JOSE LACIDES PUELLO RUBIO</t>
+  </si>
+  <si>
+    <t>73350495</t>
+  </si>
+  <si>
+    <t>RAFAEL ENRIQUE ELLES GARCIA</t>
   </si>
   <si>
     <t>1049933489</t>
@@ -80,52 +134,16 @@
     <t>TANIA MARGARITA FERIA ARGUETA</t>
   </si>
   <si>
-    <t>9147658</t>
-  </si>
-  <si>
-    <t>FRANCISCO ANTONIO RUIZ DIAZ</t>
-  </si>
-  <si>
-    <t>1051443690</t>
-  </si>
-  <si>
-    <t>PEDRO LUIS JIMENEZ CASTILLA</t>
+    <t>1051449915</t>
+  </si>
+  <si>
+    <t>JHAN CARLOS CASTRO BARRIOS</t>
   </si>
   <si>
     <t>25875902</t>
   </si>
   <si>
     <t>DIANA MILENA MIRANDA ARGUMEDO</t>
-  </si>
-  <si>
-    <t>73350495</t>
-  </si>
-  <si>
-    <t>RAFAEL ENRIQUE ELLES GARCIA</t>
-  </si>
-  <si>
-    <t>1050952506</t>
-  </si>
-  <si>
-    <t>YURIS ROCIO PUELLO OYOLA</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -539,7 +557,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{225E959F-A7B9-9A19-28F7-9755B4F9EB7C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFF3EC4D-E164-8C0C-8764-D4B43F8976C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -890,8 +908,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F50B071-BD56-4410-8C12-7287A38F6A32}">
-  <dimension ref="B2:J70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C0ED2A-02C7-4B80-9A37-814AFABE0D7A}">
+  <dimension ref="B2:J91"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -902,7 +920,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -915,7 +933,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -960,7 +978,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -992,12 +1010,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>3407731</v>
+        <v>4741064</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1008,14 +1026,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C13" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F13" s="5">
         <v>7</v>
@@ -1045,13 +1063,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1068,10 +1086,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="G16" s="18">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1082,19 +1100,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>27733</v>
+        <v>120000</v>
       </c>
       <c r="G17" s="18">
-        <v>1600000</v>
+        <v>3000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1105,13 +1123,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
         <v>120000</v>
@@ -1128,19 +1146,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>40000</v>
+        <v>120000</v>
       </c>
       <c r="G19" s="18">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1151,19 +1169,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>160000</v>
+        <v>120000</v>
       </c>
       <c r="G20" s="18">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1174,19 +1192,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>40000</v>
+        <v>120000</v>
       </c>
       <c r="G21" s="18">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1197,19 +1215,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>40000</v>
+        <v>120000</v>
       </c>
       <c r="G22" s="18">
-        <v>737717</v>
+        <v>3000000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1220,16 +1238,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>40000</v>
+        <v>33333</v>
       </c>
       <c r="G23" s="18">
         <v>1000000</v>
@@ -1249,13 +1267,13 @@
         <v>19</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F24" s="18">
-        <v>160000</v>
+        <v>40000</v>
       </c>
       <c r="G24" s="18">
-        <v>4000000</v>
+        <v>1000000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1266,13 +1284,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F25" s="18">
         <v>40000</v>
@@ -1289,13 +1307,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F26" s="18">
         <v>40000</v>
@@ -1312,19 +1330,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D27" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="F27" s="18">
-        <v>120000</v>
+        <v>40000</v>
       </c>
       <c r="G27" s="18">
-        <v>3000000</v>
+        <v>1000000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1335,19 +1353,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F28" s="18">
         <v>40000</v>
       </c>
       <c r="G28" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1358,19 +1376,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F29" s="18">
-        <v>64000</v>
+        <v>40000</v>
       </c>
       <c r="G29" s="18">
-        <v>1600000</v>
+        <v>1000000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1381,16 +1399,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F30" s="18">
-        <v>40000</v>
+        <v>33333</v>
       </c>
       <c r="G30" s="18">
         <v>1000000</v>
@@ -1404,19 +1422,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F31" s="18">
-        <v>160000</v>
+        <v>40000</v>
       </c>
       <c r="G31" s="18">
-        <v>4000000</v>
+        <v>1000000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1427,19 +1445,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F32" s="18">
-        <v>120000</v>
+        <v>40000</v>
       </c>
       <c r="G32" s="18">
-        <v>3000000</v>
+        <v>1000000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1450,19 +1468,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F33" s="18">
-        <v>64000</v>
+        <v>40000</v>
       </c>
       <c r="G33" s="18">
-        <v>1600000</v>
+        <v>1000000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1473,13 +1491,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F34" s="18">
         <v>40000</v>
@@ -1502,7 +1520,7 @@
         <v>21</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F35" s="18">
         <v>40000</v>
@@ -1519,19 +1537,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F36" s="18">
         <v>40000</v>
       </c>
       <c r="G36" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1542,16 +1560,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F37" s="18">
-        <v>40000</v>
+        <v>33333</v>
       </c>
       <c r="G37" s="18">
         <v>1000000</v>
@@ -1565,13 +1583,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F38" s="18">
         <v>40000</v>
@@ -1588,19 +1606,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F39" s="18">
-        <v>160000</v>
+        <v>40000</v>
       </c>
       <c r="G39" s="18">
-        <v>4000000</v>
+        <v>1000000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1611,19 +1629,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="F40" s="18">
-        <v>120000</v>
+        <v>40000</v>
       </c>
       <c r="G40" s="18">
-        <v>3000000</v>
+        <v>1000000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1640,13 +1658,13 @@
         <v>23</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F41" s="18">
         <v>40000</v>
       </c>
       <c r="G41" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1657,19 +1675,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F42" s="18">
-        <v>64000</v>
+        <v>40000</v>
       </c>
       <c r="G42" s="18">
-        <v>1600000</v>
+        <v>1000000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1680,13 +1698,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F43" s="18">
         <v>40000</v>
@@ -1703,16 +1721,16 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F44" s="18">
-        <v>40000</v>
+        <v>33333</v>
       </c>
       <c r="G44" s="18">
         <v>1000000</v>
@@ -1726,19 +1744,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F45" s="18">
-        <v>120000</v>
+        <v>40000</v>
       </c>
       <c r="G45" s="18">
-        <v>3000000</v>
+        <v>1000000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1749,19 +1767,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F46" s="18">
-        <v>160000</v>
+        <v>40000</v>
       </c>
       <c r="G46" s="18">
-        <v>4000000</v>
+        <v>1000000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1772,13 +1790,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F47" s="18">
         <v>40000</v>
@@ -1795,19 +1813,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F48" s="18">
-        <v>64000</v>
+        <v>40000</v>
       </c>
       <c r="G48" s="18">
-        <v>1600000</v>
+        <v>1000000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1818,13 +1836,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F49" s="18">
         <v>40000</v>
@@ -1841,19 +1859,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F50" s="18">
         <v>40000</v>
       </c>
       <c r="G50" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1864,19 +1882,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F51" s="18">
-        <v>40000</v>
+        <v>66667</v>
       </c>
       <c r="G51" s="18">
-        <v>737717</v>
+        <v>3000000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1887,19 +1905,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F52" s="18">
-        <v>40000</v>
+        <v>120000</v>
       </c>
       <c r="G52" s="18">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -1910,13 +1928,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F53" s="18">
         <v>120000</v>
@@ -1933,19 +1951,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F54" s="18">
-        <v>64000</v>
+        <v>120000</v>
       </c>
       <c r="G54" s="18">
-        <v>1600000</v>
+        <v>3000000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -1956,19 +1974,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F55" s="18">
-        <v>40000</v>
+        <v>120000</v>
       </c>
       <c r="G55" s="18">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -1979,19 +1997,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F56" s="18">
-        <v>40000</v>
+        <v>120000</v>
       </c>
       <c r="G56" s="18">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2002,19 +2020,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F57" s="18">
-        <v>160000</v>
+        <v>120000</v>
       </c>
       <c r="G57" s="18">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2025,13 +2043,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F58" s="18">
         <v>33333</v>
@@ -2048,19 +2066,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="F59" s="18">
-        <v>53333</v>
+        <v>40000</v>
       </c>
       <c r="G59" s="18">
-        <v>1600000</v>
+        <v>1000000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2071,16 +2089,16 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F60" s="18">
-        <v>33333</v>
+        <v>40000</v>
       </c>
       <c r="G60" s="18">
         <v>1000000</v>
@@ -2094,16 +2112,16 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F61" s="18">
-        <v>33333</v>
+        <v>40000</v>
       </c>
       <c r="G61" s="18">
         <v>1000000</v>
@@ -2117,19 +2135,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F62" s="18">
-        <v>33333</v>
+        <v>40000</v>
       </c>
       <c r="G62" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2140,75 +2158,558 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F63" s="18">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="G63" s="18">
-        <v>3000000</v>
+        <v>1000000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B64" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E64" s="22" t="s">
+      <c r="B64" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F64" s="24">
+      <c r="E64" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G64" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="20"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B65" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="18">
+        <v>53333</v>
+      </c>
+      <c r="G65" s="18">
+        <v>1600000</v>
+      </c>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="20"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B66" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="18">
+        <v>64000</v>
+      </c>
+      <c r="G66" s="18">
+        <v>1600000</v>
+      </c>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="20"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B67" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="18">
+        <v>64000</v>
+      </c>
+      <c r="G67" s="18">
+        <v>1600000</v>
+      </c>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="20"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B68" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="18">
+        <v>64000</v>
+      </c>
+      <c r="G68" s="18">
+        <v>1600000</v>
+      </c>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="20"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B69" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" s="18">
+        <v>64000</v>
+      </c>
+      <c r="G69" s="18">
+        <v>1600000</v>
+      </c>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="20"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B70" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" s="18">
+        <v>64000</v>
+      </c>
+      <c r="G70" s="18">
+        <v>1600000</v>
+      </c>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="20"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B71" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F71" s="18">
+        <v>27733</v>
+      </c>
+      <c r="G71" s="18">
+        <v>1600000</v>
+      </c>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="20"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B72" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="18">
+        <v>33333</v>
+      </c>
+      <c r="G72" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="20"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B73" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G73" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="20"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B74" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G74" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="20"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B75" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G75" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="20"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B76" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G76" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="20"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B77" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G77" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="20"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B78" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F78" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G78" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="20"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B79" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="18">
         <v>133333</v>
       </c>
-      <c r="G64" s="24">
+      <c r="G79" s="18">
         <v>4000000</v>
       </c>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="26"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B69" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C69" s="32"/>
-      <c r="H69" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B70" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C70" s="32"/>
-      <c r="H70" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="20"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B80" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="18">
+        <v>160000</v>
+      </c>
+      <c r="G80" s="18">
+        <v>4000000</v>
+      </c>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="20"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B81" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="18">
+        <v>160000</v>
+      </c>
+      <c r="G81" s="18">
+        <v>4000000</v>
+      </c>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="20"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B82" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" s="18">
+        <v>160000</v>
+      </c>
+      <c r="G82" s="18">
+        <v>4000000</v>
+      </c>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="20"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B83" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F83" s="18">
+        <v>160000</v>
+      </c>
+      <c r="G83" s="18">
+        <v>4000000</v>
+      </c>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="20"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B84" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F84" s="18">
+        <v>160000</v>
+      </c>
+      <c r="G84" s="18">
+        <v>4000000</v>
+      </c>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="20"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B85" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D85" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E85" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85" s="24">
+        <v>160000</v>
+      </c>
+      <c r="G85" s="24">
+        <v>4000000</v>
+      </c>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="26"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B90" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C90" s="32"/>
+      <c r="H90" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B91" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C91" s="32"/>
+      <c r="H91" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="H90:J90"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9007899194.xlsx
+++ b/Data/EC/NIT-9007899194.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15371881-FFBD-4FE4-B70E-04B0CCE305EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35BA0C87-6C20-41EF-B13B-E23FAED65049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{29C77377-8D09-4F14-ADB1-2D8F755D98A7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9851FBEC-DF2C-4C64-BE77-AFB153A53191}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="41">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,79 +71,61 @@
     <t>FRANCISCO ANTONIO RUIZ DIAZ</t>
   </si>
   <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>73350583</t>
+  </si>
+  <si>
+    <t>PLINIO JIMENEZ CASTRO</t>
+  </si>
+  <si>
+    <t>1050952506</t>
+  </si>
+  <si>
+    <t>YURIS ROCIO PUELLO OYOLA</t>
+  </si>
+  <si>
+    <t>1051443690</t>
+  </si>
+  <si>
+    <t>PEDRO LUIS JIMENEZ CASTILLA</t>
+  </si>
+  <si>
+    <t>73350495</t>
+  </si>
+  <si>
+    <t>RAFAEL ENRIQUE ELLES GARCIA</t>
+  </si>
+  <si>
+    <t>1049933489</t>
+  </si>
+  <si>
+    <t>TANIA MARGARITA FERIA ARGUETA</t>
+  </si>
+  <si>
+    <t>25875902</t>
+  </si>
+  <si>
+    <t>DIANA MILENA MIRANDA ARGUMEDO</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
     <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>73350583</t>
-  </si>
-  <si>
-    <t>PLINIO JIMENEZ CASTRO</t>
-  </si>
-  <si>
-    <t>1050952506</t>
-  </si>
-  <si>
-    <t>YURIS ROCIO PUELLO OYOLA</t>
-  </si>
-  <si>
-    <t>1051446241</t>
-  </si>
-  <si>
-    <t>CHRISTIAN RAFAEL CASTILLO PAJARO</t>
-  </si>
-  <si>
-    <t>1051443690</t>
-  </si>
-  <si>
-    <t>PEDRO LUIS JIMENEZ CASTILLA</t>
-  </si>
-  <si>
-    <t>73556263</t>
-  </si>
-  <si>
-    <t>JOSE LACIDES PUELLO RUBIO</t>
-  </si>
-  <si>
-    <t>73350495</t>
-  </si>
-  <si>
-    <t>RAFAEL ENRIQUE ELLES GARCIA</t>
-  </si>
-  <si>
-    <t>1049933489</t>
-  </si>
-  <si>
-    <t>TANIA MARGARITA FERIA ARGUETA</t>
-  </si>
-  <si>
-    <t>1051449915</t>
-  </si>
-  <si>
-    <t>JHAN CARLOS CASTRO BARRIOS</t>
-  </si>
-  <si>
-    <t>25875902</t>
-  </si>
-  <si>
-    <t>DIANA MILENA MIRANDA ARGUMEDO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -242,7 +224,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -255,9 +239,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -457,23 +439,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -501,10 +483,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -557,7 +539,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFF3EC4D-E164-8C0C-8764-D4B43F8976C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1384809C-011A-C1C2-E66F-984F31DBC388}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -908,8 +890,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C0ED2A-02C7-4B80-9A37-814AFABE0D7A}">
-  <dimension ref="B2:J91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0EF051E-DF56-4F3A-98D4-AA447C50DF9D}">
+  <dimension ref="B2:J70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -920,7 +902,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -933,7 +915,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -978,7 +960,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1010,12 +992,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>4741064</v>
+        <v>3407731</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1026,14 +1008,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C13" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F13" s="5">
         <v>7</v>
@@ -1063,13 +1045,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1086,7 +1068,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="G16" s="18">
         <v>3000000</v>
@@ -1100,19 +1082,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>120000</v>
+        <v>40000</v>
       </c>
       <c r="G17" s="18">
-        <v>3000000</v>
+        <v>1000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1123,19 +1105,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>120000</v>
+        <v>40000</v>
       </c>
       <c r="G18" s="18">
-        <v>3000000</v>
+        <v>1000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1146,19 +1128,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>120000</v>
+        <v>40000</v>
       </c>
       <c r="G19" s="18">
-        <v>3000000</v>
+        <v>1000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1169,19 +1151,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>120000</v>
+        <v>40000</v>
       </c>
       <c r="G20" s="18">
-        <v>3000000</v>
+        <v>1000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1192,19 +1174,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F21" s="18">
-        <v>120000</v>
+        <v>27733</v>
       </c>
       <c r="G21" s="18">
-        <v>3000000</v>
+        <v>1600000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1215,19 +1197,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F22" s="18">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="G22" s="18">
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1238,19 +1220,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F23" s="18">
-        <v>33333</v>
+        <v>120000</v>
       </c>
       <c r="G23" s="18">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1261,13 +1243,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F24" s="18">
         <v>40000</v>
@@ -1284,13 +1266,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F25" s="18">
         <v>40000</v>
@@ -1307,13 +1289,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F26" s="18">
         <v>40000</v>
@@ -1336,7 +1318,7 @@
         <v>19</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
         <v>40000</v>
@@ -1353,19 +1335,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F28" s="18">
-        <v>40000</v>
+        <v>64000</v>
       </c>
       <c r="G28" s="18">
-        <v>1000000</v>
+        <v>1600000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1376,19 +1358,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>40000</v>
+        <v>160000</v>
       </c>
       <c r="G29" s="18">
-        <v>1000000</v>
+        <v>4000000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1399,19 +1381,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>33333</v>
+        <v>120000</v>
       </c>
       <c r="G30" s="18">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1422,13 +1404,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F31" s="18">
         <v>40000</v>
@@ -1445,13 +1427,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F32" s="18">
         <v>40000</v>
@@ -1468,13 +1450,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F33" s="18">
         <v>40000</v>
@@ -1491,13 +1473,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F34" s="18">
         <v>40000</v>
@@ -1520,13 +1502,13 @@
         <v>21</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F35" s="18">
-        <v>40000</v>
+        <v>64000</v>
       </c>
       <c r="G35" s="18">
-        <v>1000000</v>
+        <v>1600000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1537,19 +1519,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F36" s="18">
-        <v>40000</v>
+        <v>160000</v>
       </c>
       <c r="G36" s="18">
-        <v>1000000</v>
+        <v>4000000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1560,19 +1542,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F37" s="18">
-        <v>33333</v>
+        <v>120000</v>
       </c>
       <c r="G37" s="18">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1583,13 +1565,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F38" s="18">
         <v>40000</v>
@@ -1606,13 +1588,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F39" s="18">
         <v>40000</v>
@@ -1629,13 +1611,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F40" s="18">
         <v>40000</v>
@@ -1652,13 +1634,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F41" s="18">
         <v>40000</v>
@@ -1675,19 +1657,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F42" s="18">
-        <v>40000</v>
+        <v>64000</v>
       </c>
       <c r="G42" s="18">
-        <v>1000000</v>
+        <v>1600000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1704,13 +1686,13 @@
         <v>23</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F43" s="18">
-        <v>40000</v>
+        <v>160000</v>
       </c>
       <c r="G43" s="18">
-        <v>1000000</v>
+        <v>4000000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1721,19 +1703,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F44" s="18">
-        <v>33333</v>
+        <v>120000</v>
       </c>
       <c r="G44" s="18">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1744,13 +1726,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F45" s="18">
         <v>40000</v>
@@ -1767,13 +1749,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F46" s="18">
         <v>40000</v>
@@ -1790,13 +1772,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F47" s="18">
         <v>40000</v>
@@ -1813,13 +1795,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F48" s="18">
         <v>40000</v>
@@ -1836,19 +1818,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F49" s="18">
-        <v>40000</v>
+        <v>64000</v>
       </c>
       <c r="G49" s="18">
-        <v>1000000</v>
+        <v>1600000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1859,19 +1841,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F50" s="18">
-        <v>40000</v>
+        <v>160000</v>
       </c>
       <c r="G50" s="18">
-        <v>1000000</v>
+        <v>4000000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1882,16 +1864,16 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F51" s="18">
-        <v>66667</v>
+        <v>120000</v>
       </c>
       <c r="G51" s="18">
         <v>3000000</v>
@@ -1905,19 +1887,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F52" s="18">
-        <v>120000</v>
+        <v>40000</v>
       </c>
       <c r="G52" s="18">
-        <v>3000000</v>
+        <v>1000000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -1928,19 +1910,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F53" s="18">
-        <v>120000</v>
+        <v>40000</v>
       </c>
       <c r="G53" s="18">
-        <v>3000000</v>
+        <v>1000000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -1951,19 +1933,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F54" s="18">
-        <v>120000</v>
+        <v>40000</v>
       </c>
       <c r="G54" s="18">
-        <v>3000000</v>
+        <v>1000000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -1974,19 +1956,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F55" s="18">
-        <v>120000</v>
+        <v>40000</v>
       </c>
       <c r="G55" s="18">
-        <v>3000000</v>
+        <v>1000000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -1997,19 +1979,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F56" s="18">
-        <v>120000</v>
+        <v>64000</v>
       </c>
       <c r="G56" s="18">
-        <v>3000000</v>
+        <v>1600000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2020,19 +2002,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F57" s="18">
-        <v>120000</v>
+        <v>160000</v>
       </c>
       <c r="G57" s="18">
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2043,19 +2025,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E58" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F58" s="18">
-        <v>33333</v>
+        <v>100000</v>
       </c>
       <c r="G58" s="18">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2066,16 +2048,16 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E59" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F59" s="18">
-        <v>40000</v>
+        <v>33333</v>
       </c>
       <c r="G59" s="18">
         <v>1000000</v>
@@ -2089,16 +2071,16 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D60" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E60" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E60" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F60" s="18">
-        <v>40000</v>
+        <v>33333</v>
       </c>
       <c r="G60" s="18">
         <v>1000000</v>
@@ -2112,16 +2094,16 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D61" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E61" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F61" s="18">
-        <v>40000</v>
+        <v>33333</v>
       </c>
       <c r="G61" s="18">
         <v>1000000</v>
@@ -2135,16 +2117,16 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D62" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E62" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F62" s="18">
-        <v>40000</v>
+        <v>33333</v>
       </c>
       <c r="G62" s="18">
         <v>1000000</v>
@@ -2158,558 +2140,75 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D63" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E63" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F63" s="18">
-        <v>40000</v>
+        <v>53333</v>
       </c>
       <c r="G63" s="18">
-        <v>1000000</v>
+        <v>1600000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B64" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D64" s="17" t="s">
+      <c r="B64" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E64" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F64" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G64" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B65" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="18">
-        <v>53333</v>
-      </c>
-      <c r="G65" s="18">
-        <v>1600000</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B66" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="18">
-        <v>64000</v>
-      </c>
-      <c r="G66" s="18">
-        <v>1600000</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B67" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="18">
-        <v>64000</v>
-      </c>
-      <c r="G67" s="18">
-        <v>1600000</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B68" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="18">
-        <v>64000</v>
-      </c>
-      <c r="G68" s="18">
-        <v>1600000</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
+      <c r="F64" s="24">
+        <v>133333</v>
+      </c>
+      <c r="G64" s="24">
+        <v>4000000</v>
+      </c>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="26"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B69" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F69" s="18">
-        <v>64000</v>
-      </c>
-      <c r="G69" s="18">
-        <v>1600000</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
+      <c r="B69" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C69" s="32"/>
+      <c r="H69" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B70" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F70" s="18">
-        <v>64000</v>
-      </c>
-      <c r="G70" s="18">
-        <v>1600000</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B71" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F71" s="18">
-        <v>27733</v>
-      </c>
-      <c r="G71" s="18">
-        <v>1600000</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B72" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="18">
-        <v>33333</v>
-      </c>
-      <c r="G72" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B73" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G73" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B74" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F74" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G74" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B75" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G75" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B76" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F76" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G76" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B77" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E77" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F77" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G77" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B78" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E78" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F78" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G78" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B79" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E79" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="18">
-        <v>133333</v>
-      </c>
-      <c r="G79" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B80" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E80" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G80" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B81" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E81" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G81" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B82" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E82" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G82" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B83" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E83" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F83" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G83" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B84" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E84" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F84" s="18">
-        <v>160000</v>
-      </c>
-      <c r="G84" s="18">
-        <v>4000000</v>
-      </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B85" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D85" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E85" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F85" s="24">
-        <v>160000</v>
-      </c>
-      <c r="G85" s="24">
-        <v>4000000</v>
-      </c>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="26"/>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B90" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C90" s="32"/>
-      <c r="H90" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B91" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C91" s="32"/>
-      <c r="H91" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
+      <c r="B70" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C70" s="32"/>
+      <c r="H70" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="H69:J69"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
